--- a/applications/us_states/Cleveland_projections.xlsx
+++ b/applications/us_states/Cleveland_projections.xlsx
@@ -520,76 +520,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>20781</v>
+        <v>6814</v>
       </c>
       <c r="B4">
-        <v>832</v>
+        <v>1073</v>
       </c>
       <c r="C4">
-        <v>21310</v>
+        <v>27201</v>
       </c>
       <c r="D4">
-        <v>3.566557949656751</v>
+        <v>1.169502288329519</v>
       </c>
       <c r="E4">
-        <v>0.14279176201373</v>
+        <v>0.1842391304347826</v>
       </c>
       <c r="F4">
-        <v>3.657468054919909</v>
+        <v>4.668432054919907</v>
       </c>
       <c r="G4">
-        <v>60204</v>
+        <v>0.09815011441647593</v>
       </c>
       <c r="H4">
-        <v>6926</v>
+        <v>0.02351258581235698</v>
       </c>
       <c r="I4">
-        <v>61727</v>
+        <v>0.1945364830091533</v>
       </c>
       <c r="J4">
-        <v>0.116376067368421</v>
+        <v>0.0688388947368421</v>
       </c>
       <c r="K4">
-        <v>0.04875131578947368</v>
+        <v>0.04706184210526316</v>
       </c>
       <c r="L4">
-        <v>0.1129077604210527</v>
+        <v>0.1281685545263158</v>
       </c>
       <c r="M4">
-        <v>63510</v>
+        <v>10170</v>
       </c>
       <c r="N4">
-        <v>414</v>
+        <v>608</v>
       </c>
       <c r="O4">
-        <v>96790</v>
+        <v>99685</v>
       </c>
       <c r="P4">
-        <v>11.39546921544258</v>
+        <v>1.824931291866028</v>
       </c>
       <c r="Q4">
-        <v>0.0742822966507177</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="R4">
-        <v>17.36662850784689</v>
+        <v>17.88620904936603</v>
       </c>
       <c r="S4">
-        <v>95013</v>
+        <v>0.1105020861244019</v>
       </c>
       <c r="T4">
-        <v>3940</v>
+        <v>0.01238038277511962</v>
       </c>
       <c r="U4">
-        <v>123001</v>
+        <v>0.3384172753708135</v>
       </c>
       <c r="V4">
-        <v>0.2880226126921053</v>
+        <v>0.09608930315789471</v>
       </c>
       <c r="W4">
-        <v>0.04953684210526316</v>
+        <v>0.04900394736842105</v>
       </c>
       <c r="X4">
-        <v>0.3846713176194736</v>
+        <v>0.3985519831968421</v>
       </c>
     </row>
   </sheetData>
